--- a/downloaded_files/CMPS118_Lecture-35661.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35661.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Hazem Moataz-Bellah Elhariry</x:t>
   </x:si>
   <x:si>
+    <x:t>1240066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد شريف سامى محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ziad sherief sami</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240078</x:t>
   </x:si>
   <x:si>
@@ -114,15 +123,6 @@
     <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله عادل احمد حسن ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Adel Ahmed Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240090</x:t>
   </x:si>
   <x:si>
@@ -204,6 +204,15 @@
     <x:t>Mariam Ahmed adel Ahmed ali Fouda</x:t>
   </x:si>
   <x:si>
+    <x:t>1240152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى احمد عبدالموجود على بسيونى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa ahmed abdelmawgoud aly</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240373</x:t>
   </x:si>
   <x:si>
@@ -256,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Youssab Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد العزب عبده داغر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed ElAzab Abdo Dagher</x:t>
   </x:si>
   <x:si>
     <x:t>1230289</x:t>
@@ -380,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,7 +708,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -963,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4185524653</x:v>
+        <x:v>45923.4573691782</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4165586458</x:v>
+        <x:v>45908.4185524653</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4165586458</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.9091379282</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1379,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4245710648</x:v>
+        <x:v>45923.4668602662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6690831018</x:v>
+        <x:v>45908.4245710648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6690831018</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.6781459491</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.682146331</x:v>
+        <x:v>45909.6781459491</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45909.682146331</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1606,70 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45923.456466169</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35661.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35661.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
+    <x:t>1230158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم عادل سيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Adel Said Muhamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240025</x:t>
   </x:si>
   <x:si>
@@ -67,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230172</x:t>
@@ -398,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -885,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3826984954</x:v>
+        <x:v>45927.4716155903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.8631186343</x:v>
+        <x:v>45912.3826984954</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4220259259</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45923.4573691782</x:v>
+        <x:v>45909.8631186343</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4185524653</x:v>
+        <x:v>45908.4220259259</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4165586458</x:v>
+        <x:v>45923.4573691782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4185524653</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4165586458</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.448675544</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4221451389</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3821829514</x:v>
+        <x:v>45909.448675544</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45908.4221451389</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45912.3821829514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5117908218</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45909.5117908218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.4668602662</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4245710648</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6690831018</x:v>
+        <x:v>45923.4668602662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4245710648</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6690831018</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6781459491</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.682146331</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.456466169</x:v>
+        <x:v>45909.6781459491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45909.682146331</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1688,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45923.456466169</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35661.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35661.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed ElAzab Abdo Dagher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1230289</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45927.7824397338</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Lecture-35661.xlsx
+++ b/downloaded_files/CMPS118_Lecture-35661.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1240280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>إبراهيم محمد إبراهيم محمد فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Mohamed Ibrahim Mohamed Farrag</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230147</x:t>
   </x:si>
   <x:si>
@@ -49,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Ashraf Hassan Mohib Ghanem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابى احمد محمد عبدالموجود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
     <x:t>1230158</x:t>
@@ -425,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -816,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45908.4319567477</x:v>
+        <x:v>45907.6653830671</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -848,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6653830671</x:v>
+        <x:v>45927.4716155903</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -880,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4256983449</x:v>
+        <x:v>45912.3826984954</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -912,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4716155903</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -944,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.3826984954</x:v>
+        <x:v>45909.8631186343</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.6035851852</x:v>
+        <x:v>45908.4220259259</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.8631186343</x:v>
+        <x:v>45923.4573691782</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4220259259</x:v>
+        <x:v>45908.4185524653</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.4573691782</x:v>
+        <x:v>45908.4165586458</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4185524653</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4165586458</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45909.448675544</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4221451389</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.448675544</x:v>
+        <x:v>45912.3821829514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4221451389</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3821829514</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45909.5117908218</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.5117908218</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45923.4668602662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45908.4245710648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.4668602662</x:v>
+        <x:v>45907.6690831018</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4245710648</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6690831018</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.6781459491</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45909.682146331</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6781459491</x:v>
+        <x:v>45923.456466169</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.682146331</x:v>
+        <x:v>45927.7824397338</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.456466169</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1729,70 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45927.7824397338</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
